--- a/database/start.xlsx
+++ b/database/start.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pieca\Desktop\AE4441-Group-2-VRP-Project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808E5495-4A33-4287-8DA5-9EFE532B2D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB960AB-362E-4230-91CF-111C3CE0D2E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CE367B1-B351-42C5-9808-58DF092659A7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
   <si>
     <t>lat</t>
   </si>
@@ -53,24 +53,12 @@
   <si>
     <t>base</t>
   </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +71,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -428,7 +422,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D24"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,8 +445,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>6.6846300000000003</v>
@@ -465,8 +459,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>7.474812</v>
@@ -475,12 +470,13 @@
         <v>81.117546000000004</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
+      <c r="A4">
+        <f t="shared" ref="A4:A24" si="0">A3+1</f>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>7.4980719999999996</v>
@@ -489,12 +485,13 @@
         <v>80.361705000000001</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>8.7003880000000002</v>
@@ -503,12 +500,13 @@
         <v>80.481059000000002</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>6.1888030000000001</v>
@@ -522,7 +520,8 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>6.2994180000000002</v>
@@ -536,7 +535,8 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>6.4965020000000004</v>
@@ -550,7 +550,8 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>6.755147</v>
@@ -564,7 +565,8 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>6.9784189999999997</v>
@@ -578,7 +580,8 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>7.4206070000000004</v>
@@ -592,7 +595,8 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>7.0184439999999997</v>
@@ -606,7 +610,8 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>7.0615059999999996</v>
@@ -620,7 +625,8 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>7.2213190000000003</v>
@@ -634,7 +640,8 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>7.3261029999999998</v>
@@ -648,7 +655,8 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>7.499714</v>
@@ -662,7 +670,8 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>7.5659660000000004</v>
@@ -676,7 +685,8 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>7.6981719999999996</v>
@@ -690,7 +700,8 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>8.0164679999999997</v>
@@ -704,7 +715,8 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>8.6553629999999995</v>
@@ -718,7 +730,8 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>8.8382679999999993</v>
@@ -732,7 +745,8 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>9.1833460000000002</v>
@@ -746,7 +760,8 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>9.360379</v>
@@ -760,7 +775,8 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>8.8843010000000007</v>
@@ -773,6 +789,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>